--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web_app\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,21 +19,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
-  <x:si>
-    <x:t>`quantity` INT NOT NULL,</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+  <x:si>
+    <x:t>productainsert.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CREATE TABLE `product`.`new_table` (
+`id` INT NOT NULL AUTO_INCREMENT,
+`name` VARCHAR(45) NOT NULL,
+`price` INT NOT NULL,
+`quantity` INT NOT NULL,
+`description` VARCHAR(250) NOT NULL,
+PRIMARY KEY (`id`));</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>insert()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=insert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productList.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productInfo.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redirect URI</x:t>
   </x:si>
   <x:si>
     <x:t>/products?action=list</x:t>
   </x:si>
   <x:si>
-    <x:t>/products?action=add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`price` INT NOT NULL,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIMARY KEY (`id`));</x:t>
+    <x:t>/products?action=delete&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=update&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>update()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>list()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보수정</x:t>
   </x:si>
   <x:si>
     <x:t>method</x:t>
@@ -42,97 +87,43 @@
     <x:t>delete</x:t>
   </x:si>
   <x:si>
-    <x:t>list()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
+    <x:t>상품정보등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품목록조회</x:t>
   </x:si>
   <x:si>
     <x:t>상품정보조회</x:t>
   </x:si>
   <x:si>
-    <x:t>상품정보삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보등록</x:t>
+    <x:t>productUpdate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=info&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메서드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>put</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">화면표시, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면표시</x:t>
   </x:si>
   <x:si>
     <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품목록조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>add()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메서드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productadd.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productInfo.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productList.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>redirect URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CREATE TABLE `product`.`new_table` (</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`description` VARCHAR(250) NOT NULL,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>update()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productUpdate.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=info&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`name` VARCHAR(45) NOT NULL,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=delete&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=update&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>`id` INT NOT NULL AUTO_INCREMENT,</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -195,7 +186,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="16">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -254,7 +245,133 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
       </x:left>
       <x:right>
         <x:color indexed="64"/>
@@ -263,48 +380,34 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -317,7 +420,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="15">
+  <x:cellXfs count="31">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -339,28 +442,176 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -960,190 +1211,224 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A2:F17"/>
+  <x:dimension ref="A2:F19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E24" activeCellId="0" sqref="E24:E24"/>
+      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D18"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.171875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.25390625" style="1" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="36.62890625" style="2" customWidth="1"/>
     <x:col min="5" max="5" width="23.62890625" style="2" customWidth="1"/>
     <x:col min="6" max="6" width="34.28515625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
-      <x:c r="A2" s="3" t="s">
+      <x:c r="A2" s="18" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C2" s="18" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D2" s="18" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" ht="16.399999999999999" customHeight="1">
+      <x:c r="A3" s="16" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="B3" s="21" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C3" s="22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="16" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="26" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F3" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" ht="16.399999999999999">
+      <x:c r="A4" s="16"/>
+      <x:c r="B4" s="23" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="22"/>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="27"/>
+      <x:c r="F4" s="15" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <x:c r="A5" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C5" s="24" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" ht="16.399999999999999">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="D5" s="20" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E5" s="24" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="20" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" ht="16.399999999999999" customHeight="1">
+      <x:c r="A6" s="16" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B6" s="20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C6" s="25" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D6" s="16" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B3" s="7" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D3" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" ht="16.399999999999999">
-      <x:c r="A4" s="8"/>
-      <x:c r="B4" s="7"/>
-      <x:c r="D4" s="7"/>
-      <x:c r="F4" s="7"/>
-    </x:row>
-    <x:row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <x:c r="A5" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="7" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="D5" s="7" t="s">
+      <x:c r="E6" s="28" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F6" s="17" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" ht="16.399999999999999">
+      <x:c r="A7" s="16"/>
+      <x:c r="B7" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="25"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="29"/>
+      <x:c r="F7" s="19" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="F5" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" ht="16.399999999999999">
-      <x:c r="A6" s="8"/>
-      <x:c r="B6" s="7"/>
-      <x:c r="D6" s="7"/>
-      <x:c r="F6" s="7"/>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="16.399999999999999">
-      <x:c r="A7" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D7" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E7" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F7" s="7" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" ht="16.399999999999999">
       <x:c r="A8" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B8" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="10" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F8" s="5"/>
+    </x:row>
+    <x:row r="9" spans="1:6" ht="16.399999999999999">
+      <x:c r="A9" s="20" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="20" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="20" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="20" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E9" s="20" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F9" s="30" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" customFormat="1" ht="16.399999999999999">
+      <x:c r="A10" s="8"/>
+      <x:c r="B10" s="8"/>
+      <x:c r="C10" s="8"/>
+      <x:c r="D10" s="8"/>
+      <x:c r="E10" s="8"/>
+      <x:c r="F10" s="9"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customHeight="1">
+      <x:c r="A11" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B11"/>
+    </x:row>
+    <x:row r="12" spans="1:2" customHeight="1">
+      <x:c r="A12" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D8" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F8" s="7" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="16.399999999999999">
-      <x:c r="A9" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B9" s="11" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C9" s="12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D9" s="11" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E9" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F9" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1" customHeight="1">
-      <x:c r="A11" s="14" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1" customHeight="1">
-      <x:c r="A12" s="14" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1" customHeight="1">
-      <x:c r="A13" s="14" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1" customHeight="1">
-      <x:c r="A14" s="14" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1" customHeight="1">
-      <x:c r="A15" s="14" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1" customHeight="1">
-      <x:c r="A16" s="14" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1" customHeight="1">
-      <x:c r="A17" s="14" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="B12"/>
+    </x:row>
+    <x:row r="13" spans="1:2" customHeight="1">
+      <x:c r="A13" s="12"/>
+      <x:c r="B13"/>
+    </x:row>
+    <x:row r="14" spans="1:2" customHeight="1">
+      <x:c r="A14" s="12"/>
+      <x:c r="B14"/>
+    </x:row>
+    <x:row r="15" spans="1:2" customHeight="1">
+      <x:c r="A15" s="12"/>
+      <x:c r="B15"/>
+    </x:row>
+    <x:row r="16" spans="1:2" customHeight="1">
+      <x:c r="A16" s="12"/>
+      <x:c r="B16"/>
+    </x:row>
+    <x:row r="17" spans="1:2" customHeight="1">
+      <x:c r="A17" s="12"/>
+      <x:c r="B17"/>
+    </x:row>
+    <x:row r="18" spans="1:2" customHeight="1">
+      <x:c r="A18" s="13"/>
+      <x:c r="B18"/>
+    </x:row>
+    <x:row r="19" spans="1:2" customHeight="1">
+      <x:c r="A19"/>
+      <x:c r="B19"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:mergeCells count="9">
+    <x:mergeCell ref="A12:A18"/>
+    <x:mergeCell ref="E3:E4"/>
+    <x:mergeCell ref="D3:D4"/>
+    <x:mergeCell ref="C3:C4"/>
+    <x:mergeCell ref="A6:A7"/>
+    <x:mergeCell ref="A3:A4"/>
+    <x:mergeCell ref="C6:C7"/>
+    <x:mergeCell ref="D6:D7"/>
+    <x:mergeCell ref="E6:E7"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -21,7 +21,85 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <x:si>
+    <x:t>/products?action=list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=insert</x:t>
+  </x:si>
+  <x:si>
     <x:t>productainsert.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productUpdate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redirect URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productInfo.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productList.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품목록조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">화면표시, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>info()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>list()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메서드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>put</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=info&amp;id=1</x:t>
   </x:si>
   <x:si>
     <x:t>CREATE TABLE `product`.`new_table` (
@@ -33,97 +111,19 @@
 PRIMARY KEY (`id`));</x:t>
   </x:si>
   <x:si>
-    <x:t>DB</x:t>
+    <x:t>/products?action=delete&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=update&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>update()</x:t>
   </x:si>
   <x:si>
     <x:t>insert()</x:t>
   </x:si>
   <x:si>
-    <x:t>/products?action=insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productList.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productInfo.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>redirect URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=delete&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=update&amp;id=1</x:t>
-  </x:si>
-  <x:si>
     <x:t>delete()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>update()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>list()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품목록조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productUpdate.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=info&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메서드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>put</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">화면표시, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -259,10 +259,24 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top style="thin">
         <x:color indexed="64"/>
@@ -272,15 +286,85 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
@@ -295,102 +379,18 @@
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -420,13 +420,16 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="31">
+  <x:cellXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -454,51 +457,101 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -512,21 +565,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -540,12 +578,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -561,59 +593,30 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,207 +1217,207 @@
   <x:dimension ref="A2:F19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D15" activeCellId="0" sqref="D15:D18"/>
+      <x:selection activeCell="E20" activeCellId="0" sqref="E20:E20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.25390625" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="36.62890625" style="2" customWidth="1"/>
-    <x:col min="5" max="5" width="23.62890625" style="2" customWidth="1"/>
-    <x:col min="6" max="6" width="34.28515625" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="36" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="9.25390625" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="36.62890625" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="23.62890625" style="3" customWidth="1"/>
+    <x:col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6" ht="16.399999999999999">
-      <x:c r="A2" s="18" t="s">
+      <x:c r="A2" s="15" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s">
+      <x:c r="B2" s="4" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C2" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D2" s="15" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" ht="16.399999999999999" customHeight="1">
+      <x:c r="A3" s="27" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B3" s="18" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C3" s="28" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="27" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E3" s="25" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F3" s="12" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" ht="16.399999999999999">
+      <x:c r="A4" s="27"/>
+      <x:c r="B4" s="19" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="28"/>
+      <x:c r="D4" s="27"/>
+      <x:c r="E4" s="26"/>
+      <x:c r="F4" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" ht="27.75" customHeight="1">
+      <x:c r="A5" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="20" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D5" s="17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E5" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" ht="16.399999999999999" customHeight="1">
+      <x:c r="A6" s="27" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B6" s="17" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="29" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C2" s="18" t="s">
+      <x:c r="D6" s="27" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F6" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" ht="16.399999999999999">
+      <x:c r="A7" s="27"/>
+      <x:c r="B7" s="17" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C7" s="29"/>
+      <x:c r="D7" s="27"/>
+      <x:c r="E7" s="31"/>
+      <x:c r="F7" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" ht="16.399999999999999">
+      <x:c r="A8" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B8" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E8" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:6" ht="16.399999999999999">
+      <x:c r="A9" s="17" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="17" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D2" s="18" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F2" s="3" t="s">
+      <x:c r="D9" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F9" s="21" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" ht="16.399999999999999" customHeight="1">
-      <x:c r="A3" s="16" t="s">
+    <x:row r="10" spans="1:6" s="1" customFormat="1" ht="16.399999999999999">
+      <x:c r="A10" s="9"/>
+      <x:c r="B10" s="9"/>
+      <x:c r="C10" s="9"/>
+      <x:c r="D10" s="9"/>
+      <x:c r="E10" s="9"/>
+      <x:c r="F10" s="10"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customHeight="1">
+      <x:c r="A11" s="11" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B3" s="21" t="s">
+      <x:c r="B11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:2" customHeight="1">
+      <x:c r="A12" s="22" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C3" s="22" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3" s="16" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="26" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F3" s="14" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" ht="16.399999999999999">
-      <x:c r="A4" s="16"/>
-      <x:c r="B4" s="23" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C4" s="22"/>
-      <x:c r="D4" s="16"/>
-      <x:c r="E4" s="27"/>
-      <x:c r="F4" s="15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <x:c r="A5" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B5" s="8" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C5" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D5" s="20" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E5" s="24" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F5" s="20" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="16" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B6" s="20" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C6" s="25" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="16" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E6" s="28" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F6" s="17" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="16.399999999999999">
-      <x:c r="A7" s="16"/>
-      <x:c r="B7" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C7" s="25"/>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="29"/>
-      <x:c r="F7" s="19" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" ht="16.399999999999999">
-      <x:c r="A8" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B8" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D8" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E8" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F8" s="5"/>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="16.399999999999999">
-      <x:c r="A9" s="20" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B9" s="20" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C9" s="20" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="20" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E9" s="20" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F9" s="30" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" customFormat="1" ht="16.399999999999999">
-      <x:c r="A10" s="8"/>
-      <x:c r="B10" s="8"/>
-      <x:c r="C10" s="8"/>
-      <x:c r="D10" s="8"/>
-      <x:c r="E10" s="8"/>
-      <x:c r="F10" s="9"/>
-    </x:row>
-    <x:row r="11" spans="1:2" customHeight="1">
-      <x:c r="A11" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B11"/>
-    </x:row>
-    <x:row r="12" spans="1:2" customHeight="1">
-      <x:c r="A12" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B12"/>
+      <x:c r="B12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:2" customHeight="1">
-      <x:c r="A13" s="12"/>
-      <x:c r="B13"/>
+      <x:c r="A13" s="23"/>
+      <x:c r="B13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:2" customHeight="1">
-      <x:c r="A14" s="12"/>
-      <x:c r="B14"/>
+      <x:c r="A14" s="23"/>
+      <x:c r="B14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:2" customHeight="1">
-      <x:c r="A15" s="12"/>
-      <x:c r="B15"/>
+      <x:c r="A15" s="23"/>
+      <x:c r="B15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:2" customHeight="1">
-      <x:c r="A16" s="12"/>
-      <x:c r="B16"/>
+      <x:c r="A16" s="23"/>
+      <x:c r="B16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:2" customHeight="1">
-      <x:c r="A17" s="12"/>
-      <x:c r="B17"/>
+      <x:c r="A17" s="23"/>
+      <x:c r="B17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:2" customHeight="1">
-      <x:c r="A18" s="13"/>
-      <x:c r="B18"/>
+      <x:c r="A18" s="24"/>
+      <x:c r="B18" s="1"/>
     </x:row>
     <x:row r="19" spans="1:2" customHeight="1">
-      <x:c r="A19"/>
-      <x:c r="B19"/>
+      <x:c r="A19" s="1"/>
+      <x:c r="B19" s="1"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="9">
@@ -1428,7 +1431,7 @@
     <x:mergeCell ref="D6:D7"/>
     <x:mergeCell ref="E6:E7"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="API 설계" sheetId="1" r:id="rId4"/>
@@ -19,87 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+  <x:si>
+    <x:t>/products?action=info&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=create</x:t>
+  </x:si>
   <x:si>
     <x:t>/products?action=list</x:t>
   </x:si>
   <x:si>
-    <x:t>/products?action=insert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productainsert.jsp</x:t>
+    <x:t>productacreate.jsp</x:t>
   </x:si>
   <x:si>
     <x:t>productUpdate.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>redirect URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productInfo.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productList.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품목록조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">화면표시, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>info()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>list()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메서드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=info&amp;id=1</x:t>
   </x:si>
   <x:si>
     <x:t>CREATE TABLE `product`.`new_table` (
@@ -111,19 +45,88 @@
 PRIMARY KEY (`id`));</x:t>
   </x:si>
   <x:si>
+    <x:t>productList.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redirect URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productInfo.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메서드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>put</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">화면표시, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품목록조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>list()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>update()</x:t>
+  </x:si>
+  <x:si>
     <x:t>/products?action=delete&amp;id=1</x:t>
   </x:si>
   <x:si>
     <x:t>/products?action=update&amp;id=1</x:t>
   </x:si>
   <x:si>
-    <x:t>update()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>insert()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete()</x:t>
+    <x:t>삭제</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -186,7 +189,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="16">
+  <x:borders count="15">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -264,7 +267,35 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
       <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -273,15 +304,43 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -292,6 +351,20 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
@@ -303,111 +376,27 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
+      <x:right>
+        <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
       <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -420,7 +409,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="32">
+  <x:cellXfs count="30">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -460,94 +449,79 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -593,30 +567,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A2:F19"/>
+  <x:dimension ref="A2:H19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E20" activeCellId="0" sqref="E20:E20"/>
+      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1229,190 +1212,204 @@
     <x:col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:6" ht="16.399999999999999">
-      <x:c r="A2" s="15" t="s">
+    <x:row r="2" spans="1:7" ht="16.399999999999999">
+      <x:c r="A2" s="12" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B2" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E2" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="28" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G2" s="11"/>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A3" s="22" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="23" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="22" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E3" s="20" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="29"/>
+      <x:c r="G3" s="13" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="16.399999999999999">
+      <x:c r="A4" s="22"/>
+      <x:c r="B4" s="15" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="23"/>
+      <x:c r="D4" s="22"/>
+      <x:c r="E4" s="21"/>
+      <x:c r="F4" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G4" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="27.75" customHeight="1">
+      <x:c r="A5" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="9" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="16" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D5" s="13" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E5" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F5" s="13"/>
+      <x:c r="G5" s="11"/>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A6" s="22" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="13" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="24" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D6" s="22" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C2" s="15" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D2" s="15" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F2" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" ht="16.399999999999999" customHeight="1">
-      <x:c r="A3" s="27" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="18" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C3" s="28" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="27" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E3" s="25" t="s">
+      <x:c r="E6" s="25" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F6" s="13"/>
+      <x:c r="G6" s="13" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="16.399999999999999">
+      <x:c r="A7" s="22"/>
+      <x:c r="B7" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C7" s="24"/>
+      <x:c r="D7" s="22"/>
+      <x:c r="E7" s="26"/>
+      <x:c r="F7" s="27" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F3" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" ht="16.399999999999999">
-      <x:c r="A4" s="27"/>
-      <x:c r="B4" s="19" t="s">
+      <x:c r="G7" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="16.399999999999999">
+      <x:c r="A8" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C4" s="28"/>
-      <x:c r="D4" s="27"/>
-      <x:c r="E4" s="26"/>
-      <x:c r="F4" s="13" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" ht="27.75" customHeight="1">
-      <x:c r="A5" s="17" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C5" s="20" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D5" s="17" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E5" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F5" s="17" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="17" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C6" s="29" t="s">
+      <x:c r="B8" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" s="6" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="D6" s="27" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E6" s="30" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="14" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" ht="16.399999999999999">
-      <x:c r="A7" s="27"/>
-      <x:c r="B7" s="17" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C7" s="29"/>
-      <x:c r="D7" s="27"/>
-      <x:c r="E7" s="31"/>
-      <x:c r="F7" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" ht="16.399999999999999">
-      <x:c r="A8" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="E8" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F8" s="6"/>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="16.399999999999999">
-      <x:c r="A9" s="17" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9" s="17" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D9" s="17" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E9" s="17" t="s">
+      <x:c r="F8" s="5"/>
+      <x:c r="G8" s="11"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="16.399999999999999">
+      <x:c r="A9" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B9" s="13" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="13" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D9" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E9" s="13" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F9" s="21" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" s="1" customFormat="1" ht="16.399999999999999">
+      <x:c r="F9" s="27" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G9" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" s="1" customFormat="1" ht="16.399999999999999">
       <x:c r="A10" s="9"/>
       <x:c r="B10" s="9"/>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="9"/>
       <x:c r="E10" s="9"/>
       <x:c r="F10" s="10"/>
+      <x:c r="G10"/>
+      <x:c r="H10"/>
     </x:row>
     <x:row r="11" spans="1:2" customHeight="1">
       <x:c r="A11" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:2" customHeight="1">
-      <x:c r="A12" s="22" t="s">
-        <x:v>27</x:v>
+      <x:c r="A12" s="17" t="s">
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:2" customHeight="1">
-      <x:c r="A13" s="23"/>
+      <x:c r="A13" s="18"/>
       <x:c r="B13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:2" customHeight="1">
-      <x:c r="A14" s="23"/>
+      <x:c r="A14" s="18"/>
       <x:c r="B14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:2" customHeight="1">
-      <x:c r="A15" s="23"/>
+      <x:c r="A15" s="18"/>
       <x:c r="B15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:2" customHeight="1">
-      <x:c r="A16" s="23"/>
+      <x:c r="A16" s="18"/>
       <x:c r="B16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:2" customHeight="1">
-      <x:c r="A17" s="23"/>
+      <x:c r="A17" s="18"/>
       <x:c r="B17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:2" customHeight="1">
-      <x:c r="A18" s="24"/>
+      <x:c r="A18" s="19"/>
       <x:c r="B18" s="1"/>
     </x:row>
     <x:row r="19" spans="1:2" customHeight="1">

--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="API 설계" sheetId="1" r:id="rId4"/>
@@ -21,21 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <x:si>
-    <x:t>/products?action=info&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productacreate.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productUpdate.jsp</x:t>
-  </x:si>
-  <x:si>
     <x:t>CREATE TABLE `product`.`new_table` (
 `id` INT NOT NULL AUTO_INCREMENT,
 `name` VARCHAR(45) NOT NULL,
@@ -45,6 +30,45 @@
 PRIMARY KEY (`id`));</x:t>
   </x:si>
   <x:si>
+    <x:t>상품정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품목록조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">화면표시, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>list()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면표시</x:t>
+  </x:si>
+  <x:si>
     <x:t>productList.jsp</x:t>
   </x:si>
   <x:si>
@@ -54,79 +78,55 @@
     <x:t>productInfo.jsp</x:t>
   </x:si>
   <x:si>
+    <x:t>create()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=update&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=delete&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>put</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
     <x:t>DB</x:t>
   </x:si>
   <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
     <x:t>메서드</x:t>
   </x:si>
   <x:si>
-    <x:t>put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">화면표시, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품목록조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>list()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete()</x:t>
+    <x:t>삭제</x:t>
   </x:si>
   <x:si>
     <x:t>update()</x:t>
   </x:si>
   <x:si>
-    <x:t>/products?action=delete&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=update&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제</x:t>
+    <x:t>productacreate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productUpdate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=info&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=create</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -189,7 +189,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="15">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -304,76 +304,6 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
@@ -388,15 +318,57 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="ff000000"/>
+        <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
         <x:color indexed="64"/>
       </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -419,6 +391,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -461,19 +436,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -502,14 +470,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -567,39 +535,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,221 +1172,221 @@
   <x:dimension ref="A2:H19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
+      <x:selection activeCell="H11" activeCellId="0" sqref="H11:H11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="9.25390625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="36.62890625" style="3" customWidth="1"/>
-    <x:col min="5" max="5" width="23.62890625" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="9.25390625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="36.62890625" style="4" customWidth="1"/>
+    <x:col min="5" max="5" width="23.62890625" style="4" customWidth="1"/>
+    <x:col min="6" max="6" width="34.28515625" style="4" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7" ht="16.399999999999999">
-      <x:c r="A2" s="12" t="s">
+      <x:c r="A2" s="13" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C2" s="13" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D2" s="13" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="19" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A3" s="24" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="15" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C3" s="25" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D3" s="24" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E3" s="23" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="14" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="16.399999999999999">
+      <x:c r="A4" s="24"/>
+      <x:c r="B4" s="16" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="25"/>
+      <x:c r="D4" s="24"/>
+      <x:c r="E4" s="29"/>
+      <x:c r="F4" s="17"/>
+      <x:c r="G4" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="27.75" customHeight="1">
+      <x:c r="A5" s="14" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B5" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="17" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="17" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F5" s="14"/>
+      <x:c r="G5" s="12"/>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A6" s="24" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B6" s="14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="26" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D6" s="24" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="27" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="14"/>
+      <x:c r="G6" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="16.399999999999999">
+      <x:c r="A7" s="24"/>
+      <x:c r="B7" s="14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="26"/>
+      <x:c r="D7" s="24"/>
+      <x:c r="E7" s="28"/>
+      <x:c r="F7" s="18" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G7" s="14" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="16.399999999999999">
+      <x:c r="A8" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C2" s="12" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D2" s="12" t="s">
+      <x:c r="F8" s="6"/>
+      <x:c r="G8" s="12"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="16.399999999999999">
+      <x:c r="A9" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F2" s="28" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="11"/>
-    </x:row>
-    <x:row r="3" spans="1:7" ht="16.399999999999999" customHeight="1">
-      <x:c r="A3" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" s="14" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="22" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E3" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F3" s="29"/>
-      <x:c r="G3" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" ht="16.399999999999999">
-      <x:c r="A4" s="22"/>
-      <x:c r="B4" s="15" t="s">
+      <x:c r="D9" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="23"/>
-      <x:c r="D4" s="22"/>
-      <x:c r="E4" s="21"/>
-      <x:c r="F4" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" ht="27.75" customHeight="1">
-      <x:c r="A5" s="13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
+      <x:c r="E9" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F9" s="18" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D5" s="13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E5" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F5" s="13"/>
-      <x:c r="G5" s="11"/>
-    </x:row>
-    <x:row r="6" spans="1:7" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="22" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B6" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="24" t="s">
+      <x:c r="G9" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" s="2" customFormat="1" ht="16.399999999999999">
+      <x:c r="A10" s="10"/>
+      <x:c r="B10" s="10"/>
+      <x:c r="C10" s="10"/>
+      <x:c r="D10" s="10"/>
+      <x:c r="E10" s="10"/>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="1"/>
+      <x:c r="H10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customHeight="1">
+      <x:c r="A11" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:2" customHeight="1">
+      <x:c r="A12" s="20" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D6" s="22" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E6" s="25" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="13"/>
-      <x:c r="G6" s="13" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="16.399999999999999">
-      <x:c r="A7" s="22"/>
-      <x:c r="B7" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="24"/>
-      <x:c r="D7" s="22"/>
-      <x:c r="E7" s="26"/>
-      <x:c r="F7" s="27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="16.399999999999999">
-      <x:c r="A8" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E8" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F8" s="5"/>
-      <x:c r="G8" s="11"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="16.399999999999999">
-      <x:c r="A9" s="13" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B9" s="13" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D9" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E9" s="13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F9" s="27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" s="1" customFormat="1" ht="16.399999999999999">
-      <x:c r="A10" s="9"/>
-      <x:c r="B10" s="9"/>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="9"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10"/>
-      <x:c r="H10"/>
-    </x:row>
-    <x:row r="11" spans="1:2" customHeight="1">
-      <x:c r="A11" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1"/>
-    </x:row>
-    <x:row r="12" spans="1:2" customHeight="1">
-      <x:c r="A12" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B12" s="1"/>
+      <x:c r="B12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:2" customHeight="1">
-      <x:c r="A13" s="18"/>
-      <x:c r="B13" s="1"/>
+      <x:c r="A13" s="21"/>
+      <x:c r="B13" s="2"/>
     </x:row>
     <x:row r="14" spans="1:2" customHeight="1">
-      <x:c r="A14" s="18"/>
-      <x:c r="B14" s="1"/>
+      <x:c r="A14" s="21"/>
+      <x:c r="B14" s="2"/>
     </x:row>
     <x:row r="15" spans="1:2" customHeight="1">
-      <x:c r="A15" s="18"/>
-      <x:c r="B15" s="1"/>
+      <x:c r="A15" s="21"/>
+      <x:c r="B15" s="2"/>
     </x:row>
     <x:row r="16" spans="1:2" customHeight="1">
-      <x:c r="A16" s="18"/>
-      <x:c r="B16" s="1"/>
+      <x:c r="A16" s="21"/>
+      <x:c r="B16" s="2"/>
     </x:row>
     <x:row r="17" spans="1:2" customHeight="1">
-      <x:c r="A17" s="18"/>
-      <x:c r="B17" s="1"/>
+      <x:c r="A17" s="21"/>
+      <x:c r="B17" s="2"/>
     </x:row>
     <x:row r="18" spans="1:2" customHeight="1">
-      <x:c r="A18" s="19"/>
-      <x:c r="B18" s="1"/>
+      <x:c r="A18" s="22"/>
+      <x:c r="B18" s="2"/>
     </x:row>
     <x:row r="19" spans="1:2" customHeight="1">
-      <x:c r="A19" s="1"/>
-      <x:c r="B19" s="1"/>
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="9">
